--- a/biology/Zoologie/Désert_de_Gobi/Désert_de_Gobi.xlsx
+++ b/biology/Zoologie/Désert_de_Gobi/Désert_de_Gobi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9sert_de_Gobi</t>
+          <t>Désert_de_Gobi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le désert de Gobi  (en mongol bitchig : ᠭᠣᠪᠢ, cyrillique : Говь, trans. : goby, littéralement « désert », traduit phonétiquement en chinois : 戈壁沙漠 ; pinyin : gēbì shāmò ; litt. « désert (de) gēbì » ou plus brièvement 戈壁, gēbì) est une vaste région désertique comprise entre le nord de la Chine et le sud de la Mongolie. Il englobe environ un tiers de la surface de la Mongolie. Le bassin désertique est délimité par les montagnes de l'Altaï, la steppe de Mongolie, le plateau tibétain et la plaine du Nord de la Chine. Au sens propre, le mot « gobi » (prononcé gov) désigne en mongol un territoire semi-aride (le désert est appelé tsöl) en forme de grande cuvette (racine eurasienne[Laquelle ?] *gob « creux, concave »). 
-En chinois, 戈壁 renvoient à la notion d'une barrière dangereuse avec 壁 (mur) et 戈 (hallebarde). Un espace infranchissable si l'on n'est pas armé pour affronter les conditions climatiques, les contraintes physiques du paysage. Il faut ajouter d'autres contraintes humaines : la dangerosité des tribus périphériques ou des bandes armées sillonnant un pays dans un espace où la représentation légale de l'empereur est impossible à maintenir de façon constante[1]. 
+En chinois, 戈壁 renvoient à la notion d'une barrière dangereuse avec 壁 (mur) et 戈 (hallebarde). Un espace infranchissable si l'on n'est pas armé pour affronter les conditions climatiques, les contraintes physiques du paysage. Il faut ajouter d'autres contraintes humaines : la dangerosité des tribus périphériques ou des bandes armées sillonnant un pays dans un espace où la représentation légale de l'empereur est impossible à maintenir de façon constante. 
 Le désert de Gobi revêt une importance historique, non seulement pour son appartenance à l'Empire mongol, mais aussi parce qu'il constituait l'un des points de passage de la route de la soie.
-Une partie du désert ainsi que des fossiles situés dans le désert ont été inscrits sur la liste indicative au patrimoine mondial de l'Unesco en 2014[2],[3].
+Une partie du désert ainsi que des fossiles situés dans le désert ont été inscrits sur la liste indicative au patrimoine mondial de l'Unesco en 2014,.
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9sert_de_Gobi</t>
+          <t>Désert_de_Gobi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,13 +527,15 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Gobi s'étend sur 1 600 km du sud-ouest au nord-est et sur 800 km du nord au sud. Sa superficie est estimée à 1 300 000 km2, ce qui en fait l'un des plus grands déserts au monde. Contrairement aux images fréquemment associées aux déserts, le Gobi est davantage recouvert de pierres et de roches que de sable.
-Les paysages sont divers : on trouve de vastes plaines de steppe, de terre, de pierres ou de sable, d'imposantes chaînes de montagnes comme les célèbres Flaming Cliffs ou de plus petites dunes. Cette hétérogénéité des paysages donne au désert de Gobi une importante variété de couleurs. L'ensoleillement est d'environ 250 jours par an[4].
-Des nomades habitent certaines régions[5]. Ils se déplacent à dos de chameaux, de petits chevaux (cheval mongol) ou en véhicules motorisés tout-terrain selon les régions et les moyens. Les nomades mongols vivent en famille et dorment sous des yourtes, maisons traditionnelles circulaires mongoles.
+Les paysages sont divers : on trouve de vastes plaines de steppe, de terre, de pierres ou de sable, d'imposantes chaînes de montagnes comme les célèbres Flaming Cliffs ou de plus petites dunes. Cette hétérogénéité des paysages donne au désert de Gobi une importante variété de couleurs. L'ensoleillement est d'environ 250 jours par an.
+Des nomades habitent certaines régions. Ils se déplacent à dos de chameaux, de petits chevaux (cheval mongol) ou en véhicules motorisés tout-terrain selon les régions et les moyens. Les nomades mongols vivent en famille et dorment sous des yourtes, maisons traditionnelles circulaires mongoles.
 Vers Dunhuang, dans la province chinoise du Gansu, on peut trouver de grandes oasis, des dunes de sable d'une centaine de mètres de haut, les trombes terrestres y sont fréquentes.
-Les animaux sauvages comprennent le cheval de Przewalski, le léopard des neiges, l'hémione de Mongolie[6] ou encore l'ours de Gobi.
+Les animaux sauvages comprennent le cheval de Przewalski, le léopard des neiges, l'hémione de Mongolie ou encore l'ours de Gobi.
 L'humain y domestique depuis longtemps les moutons, les chèvres, dont la chèvre cachemire, célèbre pour la qualité unique de la fibre de cachemire qu'elle produit, les yaks, les chameaux ou le cheval mongol.
 	Images
 			Vue aérienne du désert à 9 000 m d'altitude, janvier 2006.
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9sert_de_Gobi</t>
+          <t>Désert_de_Gobi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,7 +569,9 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bassin de Nemegt, situé dans la partie nord-ouest du désert, est connu localement comme la « vallée des dragons » car il est une source de nombreuses espèces de fossiles, y compris des dinosaures, des œufs de dinosaures et des empreintes de fossiles.
 </t>
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9sert_de_Gobi</t>
+          <t>Désert_de_Gobi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,10 +602,12 @@
           <t>Climat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le climat continental du désert de Gobi connaît des écarts de températures extrêmes qui le rendent très hostile. Malgré cela, des herbes ainsi que quelques petits arbustes nourrissent un grand nombre de petits animaux comme le hamster du désert et l'âne sauvage. 
-Le climat du Gobi présente d'importantes variations selon la saison : torride en été (+38 °C), il est glacial en hiver (−25 °C), ce qui en fait le désert le plus froid au monde après l'Antarctique. Ce plateau est balayé par des vents puissants[réf. souhaitée]. Entre la nuit et le jour, on peut observer une amplitude thermique de 32 °C. Dans le canyon de Yolyn Am, on peut voir des blocs de glace au mois de juillet. Le désert de Gobi s'agrandit de plus de 10 000 km2 par an[7].
+Le climat du Gobi présente d'importantes variations selon la saison : torride en été (+38 °C), il est glacial en hiver (−25 °C), ce qui en fait le désert le plus froid au monde après l'Antarctique. Ce plateau est balayé par des vents puissants[réf. souhaitée]. Entre la nuit et le jour, on peut observer une amplitude thermique de 32 °C. Dans le canyon de Yolyn Am, on peut voir des blocs de glace au mois de juillet. Le désert de Gobi s'agrandit de plus de 10 000 km2 par an.
 </t>
         </is>
       </c>
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9sert_de_Gobi</t>
+          <t>Désert_de_Gobi</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,10 +636,12 @@
           <t>Émission d'aérosols atmosphériques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les aérosols atmosphériques sont connus pour jouer un rôle important dans la détermination du bilan radiatif de la planète. La présence de particules en suspension dans l'atmosphère peut réchauffer ou refroidir le climat en interagissant avec les rayonnements solaires et telluriques. La part d'aérosols d'origine naturelle dans ce calcul ne peut être négligée, bien particulièrement dans le cas du désert du Gobi qui est une des principales zones sources d'aérosols désertiques. 
-La couverture caillouteuse de ses surfaces conduit à des seuils d’érosion élevés. En effet, les vitesses de vents à 10 m mesurées par les stations météorologiques de Mongolie au cours des tempêtes d’aérosols désertiques varient entre 11 et 20 m/s.  De plus, le nord-est de l’Asie est soumis aux fronts cycloniques de Mongolie qui sont des phénomènes météorologiques particulièrement efficaces en termes d’émission[8].
+La couverture caillouteuse de ses surfaces conduit à des seuils d’érosion élevés. En effet, les vitesses de vents à 10 m mesurées par les stations météorologiques de Mongolie au cours des tempêtes d’aérosols désertiques varient entre 11 et 20 m/s.  De plus, le nord-est de l’Asie est soumis aux fronts cycloniques de Mongolie qui sont des phénomènes météorologiques particulièrement efficaces en termes d’émission.
 </t>
         </is>
       </c>
@@ -632,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9sert_de_Gobi</t>
+          <t>Désert_de_Gobi</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -650,9 +670,11 @@
           <t>Écorégions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le Gobi peut être découpé en plusieurs régions[9] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Gobi peut être découpé en plusieurs régions :
 le plateau semi-désertique d'Alashan, situé au sud-ouest de cette steppe, comprend la région de dunes du désert du Kumtagh (Lob Nor) et s'étend jusqu'au plateau tibétain ;
 la steppe désertique de la Vallée des Lacs du Gobi, s'étend au nord, dans l'intérieur de la Mongolie ;
 la steppe du désert de Gobi oriental, s'étend sur 281 000 km2, du plateau de Mongolie intérieure (Chine) vers la Mongolie.
